--- a/medicine/Enfance/Massimo_Carlotto/Massimo_Carlotto.xlsx
+++ b/medicine/Enfance/Massimo_Carlotto/Massimo_Carlotto.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Massimo Carlotto, né le 22 juillet 1956 à Padoue, en Vénétie, est un écrivain, dramaturge et scénariste italien, auteur de nombreux romans policiers.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Carlotto a été au centre de l'une des affaires judiciaires les plus controversées de l'histoire contemporaine italienne.
 Le 20 janvier 1976, une étudiante de vingt-cinq ans, Margherita Magello, est retrouvée morte à son domicile, assassinée par 59 coups de couteau.
@@ -520,8 +534,6 @@
 Il s'enfuit alors, d'abord en France puis à Mexico, mais après trois années de fuite il est capturé par la police mexicaine et renvoyé en Italie.
 En 1989 la Cour de cassation ordonne la révision du procès, et renvoie les acteurs à la cour d'Appel de Venise, qui le 22 décembre 1990 soulève la question de la légitimité constitutionnelle : la sentence de la Cour Constitutionnelle italienne arrive le 5 juillet 1991, mais entre-temps le président du Conseil de remise de peine est parti à la retraite[réf. nécessaire], ce qui nécessite un second procès, au cours duquel Carlotto est condamné à 16 ans de prison.
 L'opinion publique prend le parti de Carlotto, et en 1993 le Président de la République italienne Oscar Luigi Scalfaro lui accorde la grâce.
-L'écrivain
-En 1995, il amorce une carrière d'écrivain par la publication de deux romans : En fuite (''Il fuggiasco) et La Vérité de l'Alligator (La verità dell'Alligatore). Ce deuxième roman a pour héros le détective privé Marco Buratti, alias l'Alligator.
 </t>
         </is>
       </c>
@@ -547,14 +559,59 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>L'écrivain</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1995, il amorce une carrière d'écrivain par la publication de deux romans : En fuite (''Il fuggiasco) et La Vérité de l'Alligator (La verità dell'Alligatore). Ce deuxième roman a pour héros le détective privé Marco Buratti, alias l'Alligator.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Massimo_Carlotto</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Massimo_Carlotto</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Romans
-Série Marco Buratti, alias l'Alligator
-La verità dell'Alligatore. Rome, Éditions e/o, 1995  (ISBN 8-87641-272-7) Publié en français sous le titre La Vérité de l'Alligator, traduit par Arlette Lauterbach, Paris, Gallimard, coll. « Série noire » no 2494, 1998  (ISBN 2-07-049692-9) ; réédition, Paris, Gallimard, coll. « Folio policier » no 847, 2018  (ISBN 978-2-07-274612-3)
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Série Marco Buratti, alias l'Alligator</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>La verità dell'Alligatore. Rome, Éditions e/o, 1995  (ISBN 8-87641-272-7) Publié en français sous le titre La Vérité de l'Alligator, traduit par Arlette Lauterbach, Paris, Gallimard, coll. « Série noire » no 2494, 1998  (ISBN 2-07-049692-9) ; réédition, Paris, Gallimard, coll. « Folio policier » no 847, 2018  (ISBN 978-2-07-274612-3)
 Il mistero di Mangiabarche. Rome, Éditions e/o, 1997  (ISBN 8-87641-309-X)
 Nessuna cortesia all'uscita. Rome, Éditions e/o, 1999  (ISBN 8-87641-378-2) — lauréat du Prix Dessì 1999 et mention spéciale du jury au Prix Scerbanenco 1999
 Il corriere colombiano. Rome, Éditions e/o, 2000  (ISBN 8-87641-418-5)
@@ -562,12 +619,88 @@
 L'amore del bandito. Rome, Éditions e/o, 2009  (ISBN 978-88-7641-873-0)
 La banda degli amanti, 2015
 Per tutto l’oro del mondo, 2015
-Blues per cuori fuorilegge e vecchie puttane, 2017
-Série Giorgio Pellegrini
-Arrivederci amore, ciao. Rome, Éditions e/o, 2001  (ISBN 8-87641-443-6) — Seconde place du Grand Prix de littérature policière 2003 en France Publié en français sous le titre Arrivederci amore, traduit par Laurent Lombard, Paris, Métailié, coll. « Suite italienne » no 73, 2003  (ISBN 978-2-7578-1334-8)
-Alla fine di un giorno noioso. Rome, Éditions e/o, 2011  (ISBN 978-88-7641-967-6) Publié en français sous le titre À la fin d’un jour ennuyeux, traduit de l'italien par Serge Quadruppani, Paris, Métailié, coll. « Bibliothèque italienne », 2013  (ISBN 978-2-86424-904-7)
-Autres romans
-Il fuggiasco. Rome, Éditions e/o, 1995  (ISBN 8-87641-237-9) — lauréat du Prix du jeudi 1996 Publié en français sous le titre En fuite, traduit par Maria Grazzini et Serge Quadruppani, Paris, Lignes noires, 2000  (ISBN 2-914073-10-0)
+Blues per cuori fuorilegge e vecchie puttane, 2017</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Massimo_Carlotto</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Massimo_Carlotto</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Série Giorgio Pellegrini</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Arrivederci amore, ciao. Rome, Éditions e/o, 2001  (ISBN 8-87641-443-6) — Seconde place du Grand Prix de littérature policière 2003 en France Publié en français sous le titre Arrivederci amore, traduit par Laurent Lombard, Paris, Métailié, coll. « Suite italienne » no 73, 2003  (ISBN 978-2-7578-1334-8)
+Alla fine di un giorno noioso. Rome, Éditions e/o, 2011  (ISBN 978-88-7641-967-6) Publié en français sous le titre À la fin d’un jour ennuyeux, traduit de l'italien par Serge Quadruppani, Paris, Métailié, coll. « Bibliothèque italienne », 2013  (ISBN 978-2-86424-904-7)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Massimo_Carlotto</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Massimo_Carlotto</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Autres romans</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Il fuggiasco. Rome, Éditions e/o, 1995  (ISBN 8-87641-237-9) — lauréat du Prix du jeudi 1996 Publié en français sous le titre En fuite, traduit par Maria Grazzini et Serge Quadruppani, Paris, Lignes noires, 2000  (ISBN 2-914073-10-0)
 Le irregolari. Buenos Aires horror tour. Rome, Éditions e/o, 1998  (ISBN 8-87641-337-5)
 L'oscura immensità della morte. Rome, Éditions e/o, 2004  (ISBN 8-87641-562-9) Publié en français sous le titre L'Immense Obscurité de la mort, traduit par Laurent Lombard, Paris, Métaillié, coll. « Suite italienne : noir » no 117, 2006  (ISBN 2-86424-572-8) ; réédition, Paris, Points, coll. « Romans noirs » no P2534, 2011  (ISBN 978-2-7578-2177-0)
 Niente, più niente al mondo. Rome, Éditions e/o, 2004  (ISBN 8-87641-635-8) Publié en français sous le titre Rien, plus rien au monde, traduit par Laurent Lombard, Paris, Métaillié, 2006  (ISBN 2-86424-571-X)
@@ -580,9 +713,43 @@
 Respiro corto, Turin, Einaudi, 2012 Publié en français sous le titre Le Souffle court, traduit de l'italien par Serge Quadruppani, Paris, Métailié, coll. « Bibliothèque italienne », 2014  (ISBN 978-2-86424-952-8)
 Cocaina (écrit en collaboration avec Giancarlo De Cataldo et Gianrico Carofiglio), 2013
 Il mondo non mi deve nulla, 2014
-Il Turista, 2016
-Nouvelles
-Il confronto, dans Tecla Dozio, 1999
+Il Turista, 2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Massimo_Carlotto</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Massimo_Carlotto</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Il confronto, dans Tecla Dozio, 1999
 Champagne per due, dans Tecla Dozio, 2000
 Il viaggio di Stefano, dans Tutta un'altra vita. Rome, Minumum Fax, 2001  (ISBN 8-88776-547-2)
 Carlo Marx e l'impresario, dans Nel Grembo del mondo, 2003
@@ -592,20 +759,163 @@
 Sangue che va sangue che viene, dans Marco Bariletti et al, Lama e trama Vol. 3. Bologne, Editrice Zona, 2006  (ISBN 8-88970-230-3)
 Storia di Gabriella vedova di mala, dans Serge Quadruppani, 14 colpi al cuore. Racconti inediti dei migliori giallisti italiani. Milan, Mondadori, 2002
 Cortonese station, dans Nero perugino, 2008
-Patotas, dans Marco Vichi, Nessuna Pietà. Adriano Salani Editore, 2009  (ISBN 8-86212-339-6)
-Bandes dessinées
-Série Marco Buratti, alias l'Alligator
-Dimmi che non vuoi morire (avec Igort, Milan, Mondadori, 2007  (ISBN 978-8-80451-809-9)
-Autres bandes dessinées
-L'ultimo treno (avec Giuseppe Palumbo), Éditions BD, 2004  (ISBN 8-88765-869-2)
+Patotas, dans Marco Vichi, Nessuna Pietà. Adriano Salani Editore, 2009  (ISBN 8-86212-339-6)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Massimo_Carlotto</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Massimo_Carlotto</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Bandes dessinées</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Série Marco Buratti, alias l'Alligator</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Dimmi che non vuoi morire (avec Igort, Milan, Mondadori, 2007  (ISBN 978-8-80451-809-9)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Massimo_Carlotto</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Massimo_Carlotto</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Bandes dessinées</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Autres bandes dessinées</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>L'ultimo treno (avec Giuseppe Palumbo), Éditions BD, 2004  (ISBN 8-88765-869-2)
 Arrivederci amore, ciao (avec Luca Crovi &amp; Andrea Mutti), dans Eraldo Baldini et al. Alta criminalità. Mondadori, 2005  (ISBN 978-8-80454-527-9)
 Tomka. Il gitano di Guernica (avec Giuseppe Palumbo), Rizzoli, 2007  (ISBN 8-81701-732-9)
-La via del pepe. Finta fiaba africana per europei benpensanti (avec Alessandro Sanna), 2014
-Littérature d'enfance et de jeunesse
-Il giorno in cui Gabriel scoprì di chiamarsi Muguel Angel. Trieste, Éditions EL, 2001  (ISBN 8-84770-664-5)
-Jimmy della Collina. Trieste, Éditions EL, 2002  (ISBN 8-84770-892-3) — Prix Ciliegia d'oro 2003
-Cinéma
-2007: Morte di un confidente dans Crimini.</t>
+La via del pepe. Finta fiaba africana per europei benpensanti (avec Alessandro Sanna), 2014</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Massimo_Carlotto</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Massimo_Carlotto</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Il giorno in cui Gabriel scoprì di chiamarsi Muguel Angel. Trieste, Éditions EL, 2001  (ISBN 8-84770-664-5)
+Jimmy della Collina. Trieste, Éditions EL, 2002  (ISBN 8-84770-892-3) — Prix Ciliegia d'oro 2003</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Massimo_Carlotto</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Massimo_Carlotto</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Cinéma</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>2007: Morte di un confidente dans Crimini.</t>
         </is>
       </c>
     </row>
